--- a/trunk/Behavior_Machine_State_Bit_Mask.xlsx
+++ b/trunk/Behavior_Machine_State_Bit_Mask.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MATLAB\work\epsych\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="4590" windowWidth="30870" windowHeight="9525"/>
+    <workbookView minimized="1" xWindow="-150" yWindow="4590" windowWidth="30870" windowHeight="9530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -422,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,19 +674,19 @@
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" s="17" t="s">
         <v>22</v>
       </c>
@@ -705,7 +710,7 @@
       </c>
       <c r="P2" s="19"/>
     </row>
-    <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -752,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -799,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30.75" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:16" ht="31" x14ac:dyDescent="0.7">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -849,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -910,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="36" x14ac:dyDescent="1.05">
+    <row r="9" spans="1:16" ht="36" x14ac:dyDescent="0.8">
       <c r="O9" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,7 +924,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J15" t="s">
         <v>25</v>
       </c>
@@ -930,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J16">
         <v>0</v>
       </c>
@@ -941,7 +946,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="18" spans="10:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>26</v>
       </c>
@@ -952,7 +957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="10:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J19">
         <v>1</v>
       </c>
@@ -986,9 +991,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>0</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>1</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>2</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>3</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>4</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>5</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>6</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>7</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>8</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>9</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>10</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>11</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>12</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>13</v>
       </c>
@@ -1188,7 +1193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
